--- a/URS/DbLayouts/L6-共同作業/CdBcm.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdBcm.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -112,39 +112,39 @@
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分公司資料檔</t>
@@ -197,75 +197,75 @@
   </si>
   <si>
     <t>DeptCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DistCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DeptCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DistCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findDistCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DistCode &gt;= ,AND DistCode &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findDeptCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DeptCode &gt;= ,AND DeptCode &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UnitCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findUnitCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitCode Asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitCode &gt;= ,AND UnitCode &lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DeptCode =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DistCode =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DeptItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DistItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部室代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>區部代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10H200:放款審查課
@@ -275,7 +275,7 @@
 10HC00:北部區域中心
 10HJ00:中部區域中心
 10HL00:南部區域中心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>104000:財務部
@@ -287,119 +287,136 @@
 10H000:放款部
 110000:會計部
 111000:投資企劃部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>單位名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部室名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>區部名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DistManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DeptManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>單位代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>單位經理代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>部室經理代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>區部經理代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DeptCode Asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DistCode Asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CdBcm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>deptCodeFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>distCodeFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShortDeptItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShortDistItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部室名稱簡寫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>區部名稱簡寫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findUnitManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findDeptManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findDistManager</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnitManager =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DeptManager =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DistManager =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>啟用記號</t>
+  </si>
+  <si>
+    <t>Y:啟用 , N:未啟用</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -487,6 +504,12 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -552,88 +575,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -935,13 +968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -952,7 +985,7 @@
     <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
@@ -967,7 +1000,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="10" t="s">
@@ -980,7 +1013,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
@@ -993,7 +1026,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
@@ -1004,7 +1037,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
@@ -1017,7 +1050,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1063,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1074,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="113.4">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -1085,7 +1118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -1106,7 +1139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="117" customHeight="1">
       <c r="A11" s="16">
         <v>3</v>
       </c>
@@ -1127,7 +1160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1">
       <c r="A12" s="16">
         <v>4</v>
       </c>
@@ -1146,7 +1179,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="32.4">
       <c r="A13" s="16">
         <v>5</v>
       </c>
@@ -1167,7 +1200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -1186,7 +1219,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="16">
         <v>7</v>
       </c>
@@ -1205,7 +1238,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="16">
         <v>8</v>
       </c>
@@ -1224,7 +1257,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="16">
         <v>9</v>
       </c>
@@ -1243,7 +1276,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="16">
         <v>10</v>
       </c>
@@ -1262,7 +1295,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="16">
         <v>11</v>
       </c>
@@ -1281,96 +1314,110 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="s">
+      <c r="B20" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="23">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="16">
         <v>13</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="16">
-        <v>6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="16">
         <v>14</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="E22" s="16">
+        <v>6</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="16">
         <v>15</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="16">
-        <v>6</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="16">
+        <v>6</v>
+      </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1379,7 +1426,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1388,7 +1435,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1397,7 +1444,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1406,7 +1453,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1415,7 +1462,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1424,7 +1471,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1433,7 +1480,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1442,7 +1489,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1451,7 +1498,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1459,6 +1506,15 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1470,7 +1526,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1480,12 +1536,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="5" customWidth="1"/>
@@ -1494,7 +1550,7 @@
     <col min="5" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -1516,7 +1572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -1527,7 +1583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -1549,7 +1605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -1560,7 +1616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
         <v>73</v>
       </c>
@@ -1568,7 +1624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
         <v>74</v>
       </c>
@@ -1576,7 +1632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
         <v>75</v>
       </c>
@@ -1585,7 +1641,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
